--- a/biology/Médecine/Nerf_périnéal/Nerf_périnéal.xlsx
+++ b/biology/Médecine/Nerf_périnéal/Nerf_périnéal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_p%C3%A9rin%C3%A9al</t>
+          <t>Nerf_périnéal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les nerfs périnéaux sont les nerfs pelviens issus du nerf pudendal qui innerve le périnée[1].   
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nerfs périnéaux sont les nerfs pelviens issus du nerf pudendal qui innerve le périnée.   
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_p%C3%A9rin%C3%A9al</t>
+          <t>Nerf_périnéal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nerfs périnéaux sont les branches terminales du nerf pudendal qui naissent immédiatement après que ce dernier ait pénétré le canal pudendal. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_p%C3%A9rin%C3%A9al</t>
+          <t>Nerf_périnéal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nerfs périnéaux se composent d'un rameau superficiel et d'un rameau profond 
 Ils accompagnent l'artère périnéale dans le canal pudendal. 
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nerf_p%C3%A9rin%C3%A9al</t>
+          <t>Nerf_périnéal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nerfs périnéaux sont sensitifs pour le scrotum ou les grandes lèvres.
 Par son rameau musculaire, ils sont moteurs pour les muscles transverses profond et superficiel du périnée, bulbo-spongieux et ischio-caverneux. Chez la femme, il innerve également le muscle constricteur de la vulve.
